--- a/olsinka_tb.xlsx
+++ b/olsinka_tb.xlsx
@@ -12,81 +12,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
-    <t xml:space="preserve">sp_scientificname</t>
+    <t xml:space="preserve">locality</t>
   </si>
   <si>
-    <t xml:space="preserve">Hraz_2008</t>
+    <t xml:space="preserve">year</t>
   </si>
   <si>
-    <t xml:space="preserve">Hraz_2009</t>
+    <t xml:space="preserve">depthlayerid</t>
   </si>
   <si>
-    <t xml:space="preserve">Hraz_2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hraz_2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hraz_2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hraz_2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hurka_2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hurka_2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hurka_2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hurka_2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hurka_2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hurka_2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Olsinska zatoka_2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Olsinska zatoka_2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Olsinska zatoka_2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Olsinska zatoka_2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Olsinska zatoka_2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Olsinska zatoka_2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pritok_2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pritok_2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pritok_2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pritok_2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pritok_2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pritok_2017</t>
+    <t xml:space="preserve">dl_layertype</t>
   </si>
   <si>
     <t xml:space="preserve">Abramis brama</t>
@@ -96,9 +33,6 @@
   </si>
   <si>
     <t xml:space="preserve">Abramis brama x Rutilus rutilus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abramis sp.</t>
   </si>
   <si>
     <t xml:space="preserve">Alburnus alburnus</t>
@@ -150,6 +84,33 @@
   </si>
   <si>
     <t xml:space="preserve">Silurus glanis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hraz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0-3-benthic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benthic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-6-benthic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0-3-pelagic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pelagic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hurka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Olsinska zatoka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pritok</t>
   </si>
 </sst>
 </file>
@@ -554,105 +515,99 @@
       <c r="X1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2008</v>
+      </c>
+      <c r="C2" t="s">
         <v>25</v>
       </c>
-      <c r="B2" t="n">
-        <v>1.3130395308021</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.242917748237564</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.19417983870266</v>
+      <c r="D2" t="s">
+        <v>26</v>
       </c>
       <c r="E2" t="n">
-        <v>0.231856397170736</v>
+        <v>2.69796246818833</v>
       </c>
       <c r="F2" t="n">
-        <v>0.581232659445972</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.60282129236526</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>8.60892122535977</v>
+        <v>0.0848887866438889</v>
       </c>
       <c r="I2" t="n">
-        <v>5.4132613554807</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5.6153093805321</v>
+        <v>4.45418440131167</v>
       </c>
       <c r="K2" t="n">
-        <v>4.20214908618697</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>5.25390214355329</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>14.5897571151224</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>8.69555653206444</v>
+        <v>1.08895330022222</v>
       </c>
       <c r="O2" t="n">
-        <v>21.7699077316306</v>
+        <v>1.26443864425833</v>
       </c>
       <c r="P2" t="n">
-        <v>10.2443564731796</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>8.81048686779021</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>3.45978940070005</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>11.9067087499211</v>
+        <v>5.05147039109278</v>
       </c>
       <c r="T2" t="n">
-        <v>4.17209674273796</v>
+        <v>24.3070007793783</v>
       </c>
       <c r="U2" t="n">
-        <v>6.40268761868821</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>2.86542623354263</v>
+        <v>2.78976207726611</v>
       </c>
       <c r="W2" t="n">
-        <v>19.8578121200113</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>2.07982381451926</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>3.70585546127558</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2008</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>2.66993734405556</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0762590019411111</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -664,7 +619,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>8.04366509485055</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -673,16 +628,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>13.4207558534406</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.66990550385667</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>3.10048886964833</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -691,42 +646,39 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>3.48364695630056</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>16.1757793080306</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>7.99693022356</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.0092266365671079</v>
+        <v>2009</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
       </c>
       <c r="E4" t="n">
-        <v>0.416666666666667</v>
+        <v>0.438784615934752</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -735,72 +687,69 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>11.2027623239887</v>
       </c>
       <c r="I4" t="n">
-        <v>0.584994523530634</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>1.88613156490156</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0.333060478204583</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>4.9936568999099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.92500796632657</v>
       </c>
       <c r="P4" t="n">
-        <v>0.621537779424969</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.0247550475937028</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0.0398148148148148</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>1.19530409632826</v>
+        <v>13.7721152358292</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>24.7776927188681</v>
       </c>
       <c r="U4" t="n">
-        <v>0.326714573493781</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>4.51081273963741</v>
       </c>
       <c r="W4" t="n">
-        <v>0.564845028620667</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0.301851851851852</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0.305555555555556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B5" t="n">
-        <v>0.00168739122987654</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
+        <v>2009</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -812,13 +761,13 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.00413122166777778</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1.88613156490156</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -827,143 +776,137 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.00197647262331076</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0.874472904919444</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>0.625025383555363</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.144125170135562</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.425109402838596</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0.0209211395899074</v>
+        <v>4.31667384721792</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>3.37301051932538</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0.00702504829407407</v>
-      </c>
-      <c r="Y5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>0.887052852572675</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1.6485420532023</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.438501599989258</v>
+        <v>2010</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
       </c>
       <c r="E6" t="n">
-        <v>1.32099710727987</v>
+        <v>3.87156346675764</v>
       </c>
       <c r="F6" t="n">
-        <v>1.75213105851279</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>3.59188757598467</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>4.56821641813417</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1.60505259667953</v>
+        <v>3.78326805655909</v>
       </c>
       <c r="J6" t="n">
-        <v>1.89468592604736</v>
+        <v>4.98615920503935</v>
       </c>
       <c r="K6" t="n">
-        <v>2.34052974360832</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>4.25210410688852</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>4.37280976031503</v>
+        <v>16.8399157510583</v>
       </c>
       <c r="N6" t="n">
-        <v>4.23820473307815</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>1.85488154625339</v>
+        <v>0.711316119139423</v>
       </c>
       <c r="P6" t="n">
-        <v>3.11541657843466</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>4.54990563554393</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>3.82556384509767</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>7.11813463184086</v>
+        <v>4.52573506863619</v>
       </c>
       <c r="T6" t="n">
-        <v>2.94199749142324</v>
+        <v>16.7651441591555</v>
       </c>
       <c r="U6" t="n">
-        <v>1.27582456124444</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>1.75947465376006</v>
+        <v>0.649962350420544</v>
       </c>
       <c r="W6" t="n">
-        <v>3.85868778797797</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>3.34470199095638</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>2.87951936279466</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.420363117395455</v>
+        <v>2010</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>4.38678027714582</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>0.0830397291039711</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -987,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1.24138754307777</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -999,116 +942,110 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>4.7241737092162</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>3.66541519654636</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>7.3408750616683</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B8" t="n">
-        <v>2.85729854275623</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.385879435139742</v>
-      </c>
-      <c r="D8" t="n">
-        <v>2.46016802335026</v>
+        <v>2012</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
       </c>
       <c r="E8" t="n">
-        <v>1.25302400038229</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>2.41736450184552</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.91413384995446</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>12.8850314194368</v>
+        <v>1.66944415308662</v>
       </c>
       <c r="I8" t="n">
-        <v>4.60213392385803</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>8.56202229730644</v>
+        <v>4.49724137057581</v>
       </c>
       <c r="K8" t="n">
-        <v>12.6653515789951</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>11.4106473235217</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>26.2197847426294</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>1.27324288129</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>3.20907943613578</v>
+        <v>0.776421121069381</v>
       </c>
       <c r="P8" t="n">
-        <v>13.1840302515425</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.642119461274632</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>14.9456397467569</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>12.4708700071488</v>
+        <v>4.98639596682478</v>
       </c>
       <c r="T8" t="n">
-        <v>0.951718740742778</v>
+        <v>27.5031775530779</v>
       </c>
       <c r="U8" t="n">
-        <v>1.86134402801966</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>4.02943030236886</v>
+        <v>0.761805406241347</v>
       </c>
       <c r="W8" t="n">
-        <v>2.38518518518519</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>15.2928945190394</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>11.7408630100784</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
+        <v>2012</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1117,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.139756944444444</v>
+        <v>2.91666666666667</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1126,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>3.51111111111111</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1135,16 +1072,16 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1.6388860128275</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1.39777695523695</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>6.1</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -1153,42 +1090,39 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0.379398148148148</v>
+        <v>9.37222222222222</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>14.1444444444444</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.238312576728915</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
+        <v>2016</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>4.64986127556778</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1197,13 +1131,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>1.2703837648544</v>
+        <v>4.55819792147278</v>
       </c>
       <c r="I10" t="n">
-        <v>1.00780944252258</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.419920601051076</v>
+        <v>8.39417145292833</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1215,140 +1149,134 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>4.44192068848593</v>
+        <v>3.41111111111111</v>
       </c>
       <c r="O10" t="n">
-        <v>1.03643472265418</v>
+        <v>1.50014253226348</v>
       </c>
       <c r="P10" t="n">
-        <v>2.69067736090572</v>
+        <v>3.55555555555556</v>
       </c>
       <c r="Q10" t="n">
-        <v>5.9096151092581</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>23.536497843955</v>
       </c>
       <c r="T10" t="n">
-        <v>1.03643472265417</v>
+        <v>20.7726121674572</v>
       </c>
       <c r="U10" t="n">
-        <v>4.23464926844254</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>2.58045209262669</v>
+        <v>5.66666666666667</v>
       </c>
       <c r="W10" t="n">
-        <v>8.18189882170783</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B11" t="n">
-        <v>2.18940467123784</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.830912915810822</v>
-      </c>
-      <c r="D11" t="n">
-        <v>2.0180283448855</v>
+        <v>2016</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>29</v>
       </c>
       <c r="E11" t="n">
-        <v>0.234126573261071</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>0.610072015528889</v>
       </c>
       <c r="G11" t="n">
-        <v>0.433159722222222</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>3.732973567365</v>
+        <v>8.37822336693621</v>
       </c>
       <c r="I11" t="n">
-        <v>4.10159436854195</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.930916209130456</v>
+        <v>4.00617694382028</v>
       </c>
       <c r="K11" t="n">
-        <v>2.64311673053671</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>1.38041087832639</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>5.44695350218197</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>8.3796487768113</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>25.0499163418651</v>
+        <v>8.08333333333333</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.05663842385187</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>13.8492171836311</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>22.4963227887257</v>
+        <v>2.31282147945139</v>
       </c>
       <c r="T11" t="n">
-        <v>9.75587780800889</v>
+        <v>5.21069993177639</v>
       </c>
       <c r="U11" t="n">
-        <v>5.80077848146749</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>0.963888888888889</v>
       </c>
       <c r="W11" t="n">
-        <v>9.71170930721494</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>7.85530821762379</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>10.6018518518519</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B12" t="n">
-        <v>0.120994811135802</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
+        <v>2016</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.426388888888889</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.14583333333333</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1357,22 +1285,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>4.20807394530722</v>
       </c>
       <c r="K12" t="n">
-        <v>0.736259584921274</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0.72404003276731</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>3.75724703981444</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1381,199 +1309,190 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>1.37222222222222</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>14.1609699719017</v>
       </c>
       <c r="U12" t="n">
-        <v>1.05478850168399</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>6.61111111111111</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B13" t="n">
-        <v>0.454681719069403</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.215728360056306</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.327037635158596</v>
+        <v>2017</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
       </c>
       <c r="E13" t="n">
-        <v>0.423414119448249</v>
+        <v>3.50854544909007</v>
       </c>
       <c r="F13" t="n">
-        <v>0.720903574826928</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.374058076353986</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>2.32441864373028</v>
+        <v>14.6398809030704</v>
       </c>
       <c r="I13" t="n">
-        <v>1.45413205866694</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.749945306717486</v>
+        <v>2.54724868942814</v>
       </c>
       <c r="K13" t="n">
-        <v>2.41506581549922</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>3.35342253541426</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>4.69689495214739</v>
+        <v>2.22222222222222</v>
       </c>
       <c r="N13" t="n">
-        <v>3.03759040553391</v>
+        <v>9.16666666666667</v>
       </c>
       <c r="O13" t="n">
-        <v>2.97621848373593</v>
+        <v>0.769745206182873</v>
       </c>
       <c r="P13" t="n">
-        <v>0.282672689140321</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>4.66711726098938</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>4.18068628583944</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>2.40701895749546</v>
+        <v>17.7102949753517</v>
       </c>
       <c r="T13" t="n">
-        <v>1.45846519253852</v>
+        <v>30.3983021151254</v>
       </c>
       <c r="U13" t="n">
-        <v>1.19497408768319</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0.359139193173572</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0.747327827368222</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>2.60176328539074</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>1.37768459205427</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B14" t="n">
-        <v>0.538417916004115</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.653484190607895</v>
+        <v>2017</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" t="s">
+        <v>29</v>
       </c>
       <c r="E14" t="n">
-        <v>0.871428571428571</v>
+        <v>2.07929034166775</v>
       </c>
       <c r="F14" t="n">
-        <v>1.45486111111111</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.939236111111111</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>14.0952197048069</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0036848633816696</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.782457149180469</v>
+        <v>5.14697818302327</v>
       </c>
       <c r="K14" t="n">
-        <v>0.236624873142383</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1.77213541666667</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1.55646895071583</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>3.2298994097878</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0.152299555356793</v>
+        <v>7.51388888888889</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.8125</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>1.70509259259259</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>1.52777777777778</v>
+        <v>0.856165725901941</v>
       </c>
       <c r="T14" t="n">
-        <v>1.26051259032241</v>
+        <v>9.59836824804117</v>
       </c>
       <c r="U14" t="n">
-        <v>1.49518749880049</v>
+        <v>1.42103240968252</v>
       </c>
       <c r="V14" t="n">
-        <v>0.172426952951345</v>
+        <v>2.30555555555556</v>
       </c>
       <c r="W14" t="n">
-        <v>1.06111111111111</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>3.28148148148148</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0.594907407407407</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
+        <v>2017</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>6.64444444444444</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1588,10 +1507,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>6.37328728958971</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>1.11805555555556</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -1603,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>0.874128425917956</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1615,42 +1534,39 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>1.18051430197535</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>17.9203729868317</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>0.513888888888889</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0.487962962962963</v>
-      </c>
-      <c r="Y15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
+        <v>2008</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>14.5460706943044</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1659,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>3.28010605770222</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0.620864323065286</v>
+        <v>11.7178131084144</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0.306378120470602</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>14.93189426946</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>3.91216472691333</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -1692,226 +1608,217 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>5.038194412045</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>64.3030206717628</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>13.5723164582883</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B17" t="n">
-        <v>0.996496117009053</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1.29456527213916</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1.63241207640009</v>
+        <v>2008</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
       </c>
       <c r="E17" t="n">
-        <v>3.21067976396336</v>
+        <v>6.42047373248889</v>
       </c>
       <c r="F17" t="n">
-        <v>3.58681242799111</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.99907795459998</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1.44153710729792</v>
+        <v>1.55499531275611</v>
       </c>
       <c r="I17" t="n">
-        <v>1.93822200999184</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0.6758563680925</v>
+        <v>37.1284311295728</v>
       </c>
       <c r="K17" t="n">
-        <v>2.46990980757485</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>4.26597675565408</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>3.40847984953074</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>5.14167300600417</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>3.27086012757166</v>
+        <v>2.75501171664389</v>
       </c>
       <c r="P17" t="n">
-        <v>1.92566261592619</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>3.97234539842787</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>9.60916340716805</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>17.1571301447786</v>
+        <v>0.337399771722222</v>
       </c>
       <c r="T17" t="n">
-        <v>1.53960798683981</v>
+        <v>22.1211082645739</v>
       </c>
       <c r="U17" t="n">
-        <v>3.74852956278529</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>1.14045144159531</v>
+        <v>17.699331783635</v>
       </c>
       <c r="W17" t="n">
-        <v>2.9570656484118</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>3.5027055871462</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>2.53128313217154</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B18" t="n">
-        <v>6.19800465840747</v>
-      </c>
-      <c r="C18" t="n">
-        <v>3.83575299972804</v>
-      </c>
-      <c r="D18" t="n">
-        <v>3.59435138689221</v>
+        <v>2009</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
       </c>
       <c r="E18" t="n">
-        <v>10.1045537916566</v>
+        <v>10.0986562833142</v>
       </c>
       <c r="F18" t="n">
-        <v>5.01865332019299</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>9.11875807571473</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>23.5213459341731</v>
+        <v>0.960300998041578</v>
       </c>
       <c r="I18" t="n">
-        <v>16.6622601924852</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>12.9064167108863</v>
+        <v>1.64645634302529</v>
       </c>
       <c r="K18" t="n">
-        <v>14.865391824699</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>22.8785344439776</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>28.0484606996476</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>65.8476569336662</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>22.9844344270381</v>
+        <v>2.43500111268386</v>
       </c>
       <c r="P18" t="n">
-        <v>17.4984300462492</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>24.7160905730814</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>9.84643826791678</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>31.4441324565694</v>
+        <v>9.09718968394449</v>
       </c>
       <c r="T18" t="n">
-        <v>29.1158291282737</v>
+        <v>52.5451882614865</v>
       </c>
       <c r="U18" t="n">
-        <v>23.1215826830084</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>9.03202178628672</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>22.0605681862848</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>18.999072738085</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>29.3806461473641</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
+        <v>2009</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>7.58597420764648</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.32645032490539</v>
+        <v>1.65103796959109</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1.28952211999082</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>11.7874479685515</v>
       </c>
       <c r="K19" t="n">
-        <v>0.201121525298372</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0.161458333333333</v>
+        <v>20.5079718427098</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>2.03081147608883</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -1923,119 +1830,113 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0.303703703703704</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>24.1003686881014</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>14.1149389688026</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>1.34611372623561</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B20" t="n">
-        <v>2.37836851968465</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.748219143068415</v>
-      </c>
-      <c r="D20" t="n">
-        <v>2.53445266365889</v>
+        <v>2010</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
       </c>
       <c r="E20" t="n">
-        <v>1.24612933839156</v>
+        <v>8.28533665426442</v>
       </c>
       <c r="F20" t="n">
-        <v>1.69643671847028</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.71458809214477</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>10.4088955755675</v>
+        <v>0.973603111999507</v>
       </c>
       <c r="I20" t="n">
-        <v>3.37812335162064</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>10.4388800374984</v>
+        <v>10.4723114966423</v>
       </c>
       <c r="K20" t="n">
-        <v>6.01572366479389</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>2.44351342124806</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>7.8083732194846</v>
+        <v>2.16561817208434</v>
       </c>
       <c r="N20" t="n">
-        <v>1.53215088996176</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>2.03804403701744</v>
+        <v>1.63297599781679</v>
       </c>
       <c r="P20" t="n">
-        <v>12.3626649911249</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>6.34599305021773</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0.915145899575185</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>8.63033439270475</v>
+        <v>2.52335089486641</v>
       </c>
       <c r="T20" t="n">
-        <v>1.67211955966278</v>
+        <v>35.8977905084717</v>
       </c>
       <c r="U20" t="n">
-        <v>1.05824309906422</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>12.5275918231133</v>
+        <v>13.0778523249149</v>
       </c>
       <c r="W20" t="n">
-        <v>0.00764749346438411</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>7.85956195148815</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>7.50827232753857</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
+        <v>2010</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>1.31187611470782</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2050,7 +1951,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>13.2392196600647</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2059,13 +1960,13 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0289306017307467</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0.12331066084638</v>
+        <v>0.967064014636164</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -2074,45 +1975,42 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>1.71749104858903</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>8.35996954402956</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>10.9683877188313</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
+        <v>2012</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>5.41083198782023</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2121,28 +2019,28 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>2.025</v>
+        <v>2.88903037732019</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>15.8509006683267</v>
       </c>
       <c r="K22" t="n">
-        <v>0.412615740740741</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>6.83667833222979</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>1.47251916984255</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>3.47841722822583</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -2151,27 +2049,2910 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0.9145875</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>2.41203703703704</v>
+        <v>6.35980080156103</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>45.3618434379256</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>0.804486101193489</v>
       </c>
       <c r="V22" t="n">
-        <v>1.89297777777778</v>
+        <v>10.3455767116258</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0.67962962962963</v>
-      </c>
-      <c r="Y22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" t="n">
+        <v>2012</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" t="n">
+        <v>6.89965576917113</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>23.8867116005624</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.39328410592719</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>5.15695299552923</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>3.20555555555556</v>
+      </c>
+      <c r="T23" t="n">
+        <v>4.27051866216442</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>2.29444444444444</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" t="n">
+        <v>2016</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" t="n">
+        <v>11.0372222222222</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.889263982430556</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1.321450731195</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2.96203469654</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2.69707327982431</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>5.55311497495667</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>18.2572708326483</v>
+      </c>
+      <c r="T24" t="n">
+        <v>44.8678436718422</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.47222222222222</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" t="n">
+        <v>2016</v>
+      </c>
+      <c r="C25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" t="n">
+        <v>4.04484991152111</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>11.4569802271643</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1.96632338617458</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.888784851281389</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.919134361411805</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.576930492844306</v>
+      </c>
+      <c r="T25" t="n">
+        <v>27.7551588141949</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>2.36111111111111</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" t="n">
+        <v>2016</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" t="n">
+        <v>5.25169710028333</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>41.60372324732</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>2.60058165688181</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>9.81272049128667</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>2.01957173086111</v>
+      </c>
+      <c r="T26" t="n">
+        <v>22.4665146459522</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0.638888888888889</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="n">
+        <v>2017</v>
+      </c>
+      <c r="C27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" t="n">
+        <v>20.6895041479195</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2.75179095195243</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>18.4856286812267</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>7.6125</v>
+      </c>
+      <c r="N27" t="n">
+        <v>2.89616013106924</v>
+      </c>
+      <c r="O27" t="n">
+        <v>5.46609829939508</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5.88541666666667</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>10.4845372732975</v>
+      </c>
+      <c r="T27" t="n">
+        <v>60.5536899925795</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>6.65416666666667</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0.115722406922987</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" t="n">
+        <v>2017</v>
+      </c>
+      <c r="C28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" t="n">
+        <v>28.4804298201177</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>19.1277076113616</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>16.044522592216</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5.14583333333333</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1.60416666666667</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>24.8033937652069</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0.861111111111111</v>
+      </c>
+      <c r="V28" t="n">
+        <v>4.54444444444444</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="n">
+        <v>2017</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" t="n">
+        <v>10.5027905399586</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>53.2915564843189</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>11.75812721835</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>11.5137637174556</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0.268888888888889</v>
+      </c>
+      <c r="T29" t="n">
+        <v>34.6779810029495</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>10.8827777777778</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" t="n">
+        <v>2008</v>
+      </c>
+      <c r="C30" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.122039628148333</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.318911205097222</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>2.50487831293389</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>5.60777682186111</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>4.68158560224111</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
+        <v>8.92607340901</v>
+      </c>
+      <c r="T30" t="n">
+        <v>84.184920055505</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1.93844231698778</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" t="n">
+        <v>2009</v>
+      </c>
+      <c r="C31" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" t="n">
+        <v>24.3327701256699</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>7.20189389093254</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>12.1878665705104</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>8.8725169864691</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5.98074999520194</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>9.78585577293038</v>
+      </c>
+      <c r="T31" t="n">
+        <v>49.3456439497538</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>4.24644863149016</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" t="n">
+        <v>2009</v>
+      </c>
+      <c r="C32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" t="n">
+        <v>20.306880932849</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>2.76144550223928</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1.20645376748248</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.55465208398126</v>
+      </c>
+      <c r="M32" t="n">
+        <v>6.47553987996174</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.0175828591871269</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1.85447411708073</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>9.47377904233213</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0.843252629831346</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0.184965991269569</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>2010</v>
+      </c>
+      <c r="C33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" t="n">
+        <v>4.07313578092511</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1.86461333827491</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>12.2047051878492</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>21.4047447508812</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.569077793404978</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5.7084482826988</v>
+      </c>
+      <c r="T33" t="n">
+        <v>18.58449120792</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" t="n">
+        <v>11.3981802410116</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" t="n">
+        <v>2010</v>
+      </c>
+      <c r="C34" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" t="n">
+        <v>22.1088434836609</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>9.33710196518146</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>2.5843158760616</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>8.07203208271717</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5.95102183712956</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0.0435027954463133</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0.456898666070378</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>33.8226984235529</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" t="n">
+        <v>2010</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" t="n">
+        <v>4.5080871012472</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>24.735980469577</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>47.7939824375845</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.222874430434693</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0.0777810545543872</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>25.6410644568907</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" t="n">
+        <v>2012</v>
+      </c>
+      <c r="C36" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" t="n">
+        <v>10.4035148225943</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1.26926013159825</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4.11327684770373</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>9.31216535591408</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
+      <c r="S36" t="n">
+        <v>7.90555555555556</v>
+      </c>
+      <c r="T36" t="n">
+        <v>36.0216123447198</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0</v>
+      </c>
+      <c r="V36" t="n">
+        <v>10.9222222222222</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37" t="n">
+        <v>2012</v>
+      </c>
+      <c r="C37" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" t="s">
+        <v>29</v>
+      </c>
+      <c r="E37" t="n">
+        <v>6.70235683835261</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>8.9229950754327</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>11.8192302185162</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1.625</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>12.5179974136738</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>1.675</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" t="n">
+        <v>2016</v>
+      </c>
+      <c r="C38" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" t="s">
+        <v>26</v>
+      </c>
+      <c r="E38" t="n">
+        <v>2.57076437882611</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.119444444444444</v>
+      </c>
+      <c r="H38" t="n">
+        <v>1.57618200855778</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>6.91499033407222</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>17.1820513237094</v>
+      </c>
+      <c r="N38" t="n">
+        <v>4.11666666666667</v>
+      </c>
+      <c r="O38" t="n">
+        <v>11.4787683991744</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>27.2347038949395</v>
+      </c>
+      <c r="T38" t="n">
+        <v>24.0236785137344</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39" t="n">
+        <v>2016</v>
+      </c>
+      <c r="C39" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" t="s">
+        <v>29</v>
+      </c>
+      <c r="E39" t="n">
+        <v>2.31944444444444</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>9.87810034584079</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>5.49340027023695</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5.05555242367014</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5.11527777777778</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0</v>
+      </c>
+      <c r="T39" t="n">
+        <v>2.56213214717222</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0</v>
+      </c>
+      <c r="V39" t="n">
+        <v>2.36111111111111</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0</v>
+      </c>
+      <c r="X39" t="n">
+        <v>2.7437625</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40" t="n">
+        <v>2016</v>
+      </c>
+      <c r="C40" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40" t="n">
+        <v>5.40171797875014</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>31.5514914367856</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>19.3100478035138</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0.119899650505556</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>1.64552953778333</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>31</v>
+      </c>
+      <c r="B41" t="n">
+        <v>2017</v>
+      </c>
+      <c r="C41" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41" t="n">
+        <v>2.79482443630812</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.337050439118395</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>13.0555137926424</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>23.775</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>6.58652127563328</v>
+      </c>
+      <c r="P41" t="n">
+        <v>4.58333333333333</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>48.6444893267641</v>
+      </c>
+      <c r="T41" t="n">
+        <v>34.9837470836346</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>6.30057360490674</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>7.23611111111111</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>31</v>
+      </c>
+      <c r="B42" t="n">
+        <v>2017</v>
+      </c>
+      <c r="C42" t="s">
+        <v>28</v>
+      </c>
+      <c r="D42" t="s">
+        <v>29</v>
+      </c>
+      <c r="E42" t="n">
+        <v>12.0153541782415</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>3.18959660414756</v>
+      </c>
+      <c r="H42" t="n">
+        <v>20.2281052711968</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>11.7786099438516</v>
+      </c>
+      <c r="K42" t="n">
+        <v>1.13819444444444</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>15.0069444444444</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
+      <c r="S42" t="n">
+        <v>1.21388888888889</v>
+      </c>
+      <c r="T42" t="n">
+        <v>14.7112094018031</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0</v>
+      </c>
+      <c r="V42" t="n">
+        <v>1.59583333333333</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>31</v>
+      </c>
+      <c r="B43" t="n">
+        <v>2017</v>
+      </c>
+      <c r="C43" t="s">
+        <v>27</v>
+      </c>
+      <c r="D43" t="s">
+        <v>26</v>
+      </c>
+      <c r="E43" t="n">
+        <v>16.2902777777778</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.396315684837219</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>10.9057806107478</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>28.7070239217327</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0.152258393080736</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>41.6007356115843</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0.911111111111111</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>32</v>
+      </c>
+      <c r="B44" t="n">
+        <v>2008</v>
+      </c>
+      <c r="C44" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" t="s">
+        <v>26</v>
+      </c>
+      <c r="E44" t="n">
+        <v>2.741463795295</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.529679487526111</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.407796642638333</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>22.2522050230589</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1.58069762137778</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>1.71886829678</v>
+      </c>
+      <c r="T44" t="n">
+        <v>44.9186502881567</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0.823865632868333</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>32</v>
+      </c>
+      <c r="B45" t="n">
+        <v>2008</v>
+      </c>
+      <c r="C45" t="s">
+        <v>28</v>
+      </c>
+      <c r="D45" t="s">
+        <v>29</v>
+      </c>
+      <c r="E45" t="n">
+        <v>6.74121502934278</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>8.29631298674361</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>3.1093041679625</v>
+      </c>
+      <c r="M45" t="n">
+        <v>7.01542840096778</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0.0673962891427778</v>
+      </c>
+      <c r="P45" t="n">
+        <v>3.78153777096722</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0</v>
+      </c>
+      <c r="T45" t="n">
+        <v>35.7836211145411</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0.821629843014445</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>32</v>
+      </c>
+      <c r="B46" t="n">
+        <v>2008</v>
+      </c>
+      <c r="C46" t="s">
+        <v>27</v>
+      </c>
+      <c r="D46" t="s">
+        <v>26</v>
+      </c>
+      <c r="E46" t="n">
+        <v>3.03361140357611</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2.44735957959</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>1.38502989574056</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>2.71480962276778</v>
+      </c>
+      <c r="T46" t="n">
+        <v>6.62499497180333</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>3.12899052723444</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>32</v>
+      </c>
+      <c r="B47" t="n">
+        <v>2009</v>
+      </c>
+      <c r="C47" t="s">
+        <v>25</v>
+      </c>
+      <c r="D47" t="s">
+        <v>26</v>
+      </c>
+      <c r="E47" t="n">
+        <v>25.2490798763572</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.134832347754537</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>5.10638844890449</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>13.3879508192703</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" t="n">
+        <v>1.48402793146843</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0</v>
+      </c>
+      <c r="S47" t="n">
+        <v>4.80841684934355</v>
+      </c>
+      <c r="T47" t="n">
+        <v>45.9797263693909</v>
+      </c>
+      <c r="U47" t="n">
+        <v>0</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="n">
+        <v>0</v>
+      </c>
+      <c r="X47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>32</v>
+      </c>
+      <c r="B48" t="n">
+        <v>2009</v>
+      </c>
+      <c r="C48" t="s">
+        <v>28</v>
+      </c>
+      <c r="D48" t="s">
+        <v>29</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.653429146987561</v>
+      </c>
+      <c r="H48" t="n">
+        <v>2.45688010180181</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>1.77532312724992</v>
+      </c>
+      <c r="M48" t="n">
+        <v>11.601556962935</v>
+      </c>
+      <c r="N48" t="n">
+        <v>2.10957700336799</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0.0448166810841861</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0</v>
+      </c>
+      <c r="T48" t="n">
+        <v>17.2128845728908</v>
+      </c>
+      <c r="U48" t="n">
+        <v>0</v>
+      </c>
+      <c r="V48" t="n">
+        <v>2.09228512009981</v>
+      </c>
+      <c r="W48" t="n">
+        <v>0</v>
+      </c>
+      <c r="X48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>32</v>
+      </c>
+      <c r="B49" t="n">
+        <v>2009</v>
+      </c>
+      <c r="C49" t="s">
+        <v>27</v>
+      </c>
+      <c r="D49" t="s">
+        <v>26</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.361670598395641</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>2.33898766317417</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" t="n">
+        <v>2.95966236559535</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5.98074999520194</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0</v>
+      </c>
+      <c r="S49" t="n">
+        <v>9.90498066973864</v>
+      </c>
+      <c r="T49" t="n">
+        <v>12.0808352168609</v>
+      </c>
+      <c r="U49" t="n">
+        <v>0</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="n">
+        <v>0</v>
+      </c>
+      <c r="X49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>32</v>
+      </c>
+      <c r="B50" t="n">
+        <v>2010</v>
+      </c>
+      <c r="C50" t="s">
+        <v>25</v>
+      </c>
+      <c r="D50" t="s">
+        <v>26</v>
+      </c>
+      <c r="E50" t="n">
+        <v>2.52741479197278</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.63005475460958</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>7.44313745810632</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0.805380441668549</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0</v>
+      </c>
+      <c r="S50" t="n">
+        <v>3.1322100597061</v>
+      </c>
+      <c r="T50" t="n">
+        <v>18.3593693206388</v>
+      </c>
+      <c r="U50" t="n">
+        <v>0</v>
+      </c>
+      <c r="V50" t="n">
+        <v>15.0719048986423</v>
+      </c>
+      <c r="W50" t="n">
+        <v>0</v>
+      </c>
+      <c r="X50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>32</v>
+      </c>
+      <c r="B51" t="n">
+        <v>2010</v>
+      </c>
+      <c r="C51" t="s">
+        <v>28</v>
+      </c>
+      <c r="D51" t="s">
+        <v>29</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1.12288094898891</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>4.32507020876127</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>1.76557877400789</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
+        <v>7.74135627788006</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0.517280858854036</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0.00461262248514986</v>
+      </c>
+      <c r="T51" t="n">
+        <v>7.42378654821753</v>
+      </c>
+      <c r="U51" t="n">
+        <v>0</v>
+      </c>
+      <c r="V51" t="n">
+        <v>1.39728600275682</v>
+      </c>
+      <c r="W51" t="n">
+        <v>0</v>
+      </c>
+      <c r="X51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>32</v>
+      </c>
+      <c r="B52" t="n">
+        <v>2010</v>
+      </c>
+      <c r="C52" t="s">
+        <v>27</v>
+      </c>
+      <c r="D52" t="s">
+        <v>26</v>
+      </c>
+      <c r="E52" t="n">
+        <v>4.94598295966619</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.314279495748579</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2.87957467499238</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0.132635878196905</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0</v>
+      </c>
+      <c r="T52" t="n">
+        <v>1.28228307489901</v>
+      </c>
+      <c r="U52" t="n">
+        <v>0</v>
+      </c>
+      <c r="V52" t="n">
+        <v>21.0517013803609</v>
+      </c>
+      <c r="W52" t="n">
+        <v>0</v>
+      </c>
+      <c r="X52" t="n">
+        <v>5.67893333333333</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>32</v>
+      </c>
+      <c r="B53" t="n">
+        <v>2012</v>
+      </c>
+      <c r="C53" t="s">
+        <v>25</v>
+      </c>
+      <c r="D53" t="s">
+        <v>26</v>
+      </c>
+      <c r="E53" t="n">
+        <v>26.1874658010205</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.705555555555556</v>
+      </c>
+      <c r="H53" t="n">
+        <v>1.06753719363165</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>7.15555555555556</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
+        <v>22.4333333333333</v>
+      </c>
+      <c r="M53" t="n">
+        <v>8.72241943100146</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0.501177571243508</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5.29444444444444</v>
+      </c>
+      <c r="T53" t="n">
+        <v>39.8666666666667</v>
+      </c>
+      <c r="U53" t="n">
+        <v>0</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="n">
+        <v>0</v>
+      </c>
+      <c r="X53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>32</v>
+      </c>
+      <c r="B54" t="n">
+        <v>2012</v>
+      </c>
+      <c r="C54" t="s">
+        <v>28</v>
+      </c>
+      <c r="D54" t="s">
+        <v>29</v>
+      </c>
+      <c r="E54" t="n">
+        <v>33.25263722568</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.988979530306444</v>
+      </c>
+      <c r="H54" t="n">
+        <v>10.5085261703023</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>2.11236313179014</v>
+      </c>
+      <c r="M54" t="n">
+        <v>16.6797349232784</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0</v>
+      </c>
+      <c r="P54" t="n">
+        <v>3.18333333333333</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0</v>
+      </c>
+      <c r="S54" t="n">
+        <v>1.91111111111111</v>
+      </c>
+      <c r="T54" t="n">
+        <v>25.8923470782548</v>
+      </c>
+      <c r="U54" t="n">
+        <v>0</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="n">
+        <v>0</v>
+      </c>
+      <c r="X54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>32</v>
+      </c>
+      <c r="B55" t="n">
+        <v>2012</v>
+      </c>
+      <c r="C55" t="s">
+        <v>27</v>
+      </c>
+      <c r="D55" t="s">
+        <v>26</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.133333333333333</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>3.73297356736497</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" t="n">
+        <v>1.70402396742004</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0</v>
+      </c>
+      <c r="S55" t="n">
+        <v>1.57777777777778</v>
+      </c>
+      <c r="T55" t="n">
+        <v>0.411111111111111</v>
+      </c>
+      <c r="U55" t="n">
+        <v>0</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="n">
+        <v>0</v>
+      </c>
+      <c r="X55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>32</v>
+      </c>
+      <c r="B56" t="n">
+        <v>2016</v>
+      </c>
+      <c r="C56" t="s">
+        <v>25</v>
+      </c>
+      <c r="D56" t="s">
+        <v>26</v>
+      </c>
+      <c r="E56" t="n">
+        <v>3.35055555555555</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.905555555555556</v>
+      </c>
+      <c r="H56" t="n">
+        <v>2.74049341847556</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>24.3910263604056</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>14.1811351818108</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" t="n">
+        <v>5.599547810725</v>
+      </c>
+      <c r="P56" t="n">
+        <v>9.51666666666667</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0</v>
+      </c>
+      <c r="S56" t="n">
+        <v>8.50539459584278</v>
+      </c>
+      <c r="T56" t="n">
+        <v>30.6141119304783</v>
+      </c>
+      <c r="U56" t="n">
+        <v>0</v>
+      </c>
+      <c r="V56" t="n">
+        <v>12.8327777777778</v>
+      </c>
+      <c r="W56" t="n">
+        <v>0</v>
+      </c>
+      <c r="X56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>32</v>
+      </c>
+      <c r="B57" t="n">
+        <v>2016</v>
+      </c>
+      <c r="C57" t="s">
+        <v>28</v>
+      </c>
+      <c r="D57" t="s">
+        <v>29</v>
+      </c>
+      <c r="E57" t="n">
+        <v>2.87192279393583</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>6.96529897206219</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>4.70227475846917</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>9.38478947106056</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0.327777777777778</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>1.46388888888889</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0</v>
+      </c>
+      <c r="S57" t="n">
+        <v>0.806620979598333</v>
+      </c>
+      <c r="T57" t="n">
+        <v>24.8014981684347</v>
+      </c>
+      <c r="U57" t="n">
+        <v>0</v>
+      </c>
+      <c r="V57" t="n">
+        <v>10.3944444444444</v>
+      </c>
+      <c r="W57" t="n">
+        <v>0</v>
+      </c>
+      <c r="X57" t="n">
+        <v>2.03888888888889</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>32</v>
+      </c>
+      <c r="B58" t="n">
+        <v>2016</v>
+      </c>
+      <c r="C58" t="s">
+        <v>27</v>
+      </c>
+      <c r="D58" t="s">
+        <v>26</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.324849177588333</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>16.7853824382433</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" t="n">
+        <v>1.80352475766944</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0.370734779551111</v>
+      </c>
+      <c r="T58" t="n">
+        <v>1.46840473420389</v>
+      </c>
+      <c r="U58" t="n">
+        <v>0</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="n">
+        <v>0</v>
+      </c>
+      <c r="X58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>32</v>
+      </c>
+      <c r="B59" t="n">
+        <v>2017</v>
+      </c>
+      <c r="C59" t="s">
+        <v>25</v>
+      </c>
+      <c r="D59" t="s">
+        <v>26</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.971423135264177</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>14.491504926244</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="n">
+        <v>10.4583333333333</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" t="n">
+        <v>2.86245623202764</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0</v>
+      </c>
+      <c r="S59" t="n">
+        <v>2.84910399299506</v>
+      </c>
+      <c r="T59" t="n">
+        <v>39.3339186852257</v>
+      </c>
+      <c r="U59" t="n">
+        <v>0</v>
+      </c>
+      <c r="V59" t="n">
+        <v>8.54111111111111</v>
+      </c>
+      <c r="W59" t="n">
+        <v>0</v>
+      </c>
+      <c r="X59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>32</v>
+      </c>
+      <c r="B60" t="n">
+        <v>2017</v>
+      </c>
+      <c r="C60" t="s">
+        <v>28</v>
+      </c>
+      <c r="D60" t="s">
+        <v>29</v>
+      </c>
+      <c r="E60" t="n">
+        <v>3.95444444444444</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.916666666666667</v>
+      </c>
+      <c r="H60" t="n">
+        <v>8.51942197241968</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>7.39622524742072</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5.41666666666667</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0</v>
+      </c>
+      <c r="P60" t="n">
+        <v>1.78472222222222</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>0</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0</v>
+      </c>
+      <c r="S60" t="n">
+        <v>0.646111111111111</v>
+      </c>
+      <c r="T60" t="n">
+        <v>30.685906427175</v>
+      </c>
+      <c r="U60" t="n">
+        <v>4.03834117870683</v>
+      </c>
+      <c r="V60" t="n">
+        <v>8.39972222222222</v>
+      </c>
+      <c r="W60" t="n">
+        <v>0</v>
+      </c>
+      <c r="X60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>32</v>
+      </c>
+      <c r="B61" t="n">
+        <v>2017</v>
+      </c>
+      <c r="C61" t="s">
+        <v>27</v>
+      </c>
+      <c r="D61" t="s">
+        <v>26</v>
+      </c>
+      <c r="E61" t="n">
+        <v>6</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>13.2081449205016</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>15.9305555555556</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0.538634041594028</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0.888888888888889</v>
+      </c>
+      <c r="T61" t="n">
+        <v>16.7036261034025</v>
+      </c>
+      <c r="U61" t="n">
+        <v>0</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0.433333333333333</v>
+      </c>
+      <c r="W61" t="n">
+        <v>0</v>
+      </c>
+      <c r="X61" t="n">
         <v>0</v>
       </c>
     </row>
